--- a/data/case1/16/P2_4.xlsx
+++ b/data/case1/16/P2_4.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.37288010933832538</v>
+        <v>0.36880911882937539</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.079252752653523828</v>
+        <v>-0.070437720477297461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999972543601814</v>
+        <v>-0.0089999987454785213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061982054623378247</v>
+        <v>0.061990161506578545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999972926316758</v>
+        <v>-0.0059999987647394448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999972140012403</v>
+        <v>-0.0059999987280932032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999996825307065</v>
+        <v>-0.019999998528499319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999996817356092</v>
+        <v>-0.019999998524282248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999972006092861</v>
+        <v>-0.0059999987205934247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999997203495866</v>
+        <v>-0.0059999987214141015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.012577355135590551</v>
+        <v>0.0086165535474442834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999972034274762</v>
+        <v>-0.0059999987212959738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999972075086561</v>
+        <v>-0.0059999987240253461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999997045817778</v>
+        <v>-0.011999998641210041</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999972178266248</v>
+        <v>-0.0059999987295231705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999972298858673</v>
+        <v>-0.0059999987356857964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999972591135986</v>
+        <v>-0.005999998749890878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.04307873027440845</v>
+        <v>0.044351738860677337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.085470688362050851</v>
+        <v>-0.086494401496521434</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999972706920062</v>
+        <v>-0.0089999987542199733</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999972671401807</v>
+        <v>-0.0089999987525102298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999972655681049</v>
+        <v>-0.0089999987515083646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999972332854838</v>
+        <v>-0.0089999987355229294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.031909029660828203</v>
+        <v>-0.032735585952955226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999996269403539</v>
+        <v>-0.041999998242409298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999972052189321</v>
+        <v>-0.0059999987232046692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999971915023487</v>
+        <v>-0.0059999987164998103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999971315356504</v>
+        <v>-0.0059999986885896917</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999996927585244</v>
+        <v>-0.011999998585226379</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999996690362121</v>
+        <v>-0.019999998463712476</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999996801002169</v>
+        <v>-0.014999998521512126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999996632760976</v>
+        <v>-0.020999998435083711</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999970449107209</v>
+        <v>-0.0059999986464260857</v>
       </c>
     </row>
   </sheetData>
